--- a/data/perfil_sanitario_hibridos_cultivio_23.xlsx
+++ b/data/perfil_sanitario_hibridos_cultivio_23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOXWW\Documents\github_edwardsmolina\hybrid_profile_app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86F1B53-E7FB-4480-B00E-A9E270C7549C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9E8F13-7D75-42DC-AB6F-36C9F18CC0C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10" yWindow="10" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
